--- a/Tabela_Correlacao_TODOS_ATRIBUTOS.xlsx
+++ b/Tabela_Correlacao_TODOS_ATRIBUTOS.xlsx
@@ -1018,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ED44"/>
+  <dimension ref="A1:ED47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="EA13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:ED32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18938,6 +18938,1074 @@
         <v>0.55175710154099999</v>
       </c>
     </row>
+    <row r="46" spans="1:134" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <f>LARGE(B2:B45,1)</f>
+        <v>0.30431158629100002</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:AG46" si="0">LARGE(C2:C45,1)</f>
+        <v>0.38326862529</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.28158560888</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.36907584695399998</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.35817085717899999</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0.30199559609100002</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.272486660622</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>0.36739853740099998</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0.44199315193200001</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>4.0708538595600002E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>0.19075293416899999</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>8.9663216075799995E-2</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>0.105061792652</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>0.155637219662</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>0.33433086472200002</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>0.371165743017</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="0"/>
+        <v>0.34017548522000002</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>0.39841900911799999</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="0"/>
+        <v>0.40690164957300001</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>0.37342418415900003</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="0"/>
+        <v>0.27448710422599998</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="0"/>
+        <v>0.43606592781699999</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="0"/>
+        <v>0.432666646943</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="0"/>
+        <v>6.0322280173200002E-2</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="0"/>
+        <v>0.28770548238999999</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="0"/>
+        <v>8.3759628983599996E-2</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="0"/>
+        <v>0.19813795920499999</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="0"/>
+        <v>0.26133318276099998</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="0"/>
+        <v>0.34948923208999999</v>
+      </c>
+      <c r="AE46">
+        <f t="shared" si="0"/>
+        <v>0.39143354470300001</v>
+      </c>
+      <c r="AF46">
+        <f t="shared" si="0"/>
+        <v>0.35017627936599999</v>
+      </c>
+      <c r="AG46">
+        <f t="shared" si="0"/>
+        <v>0.409526427601</v>
+      </c>
+      <c r="AH46">
+        <f>LARGE(AH2:AH45,1)</f>
+        <v>0.40875494969300002</v>
+      </c>
+      <c r="AI46">
+        <f>LARGE(AI2:AI45,1)</f>
+        <v>0.38356054051999999</v>
+      </c>
+      <c r="AJ46">
+        <f>LARGE(AJ2:AJ45,1)</f>
+        <v>0.29140533578299999</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" ref="AK46:CV46" si="1">LARGE(AK2:AK45,1)</f>
+        <v>0.43753621286200001</v>
+      </c>
+      <c r="AL46">
+        <f t="shared" si="1"/>
+        <v>0.498311742911</v>
+      </c>
+      <c r="AM46">
+        <f t="shared" si="1"/>
+        <v>6.34243017144E-2</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="1"/>
+        <v>0.28082063420199999</v>
+      </c>
+      <c r="AO46">
+        <f t="shared" si="1"/>
+        <v>7.9036392638200004E-2</v>
+      </c>
+      <c r="AP46">
+        <f t="shared" si="1"/>
+        <v>0.189282174208</v>
+      </c>
+      <c r="AQ46">
+        <f t="shared" si="1"/>
+        <v>0.254717344929</v>
+      </c>
+      <c r="AR46">
+        <f t="shared" si="1"/>
+        <v>0.96668495110800001</v>
+      </c>
+      <c r="AS46">
+        <f t="shared" si="1"/>
+        <v>0.91331054475899998</v>
+      </c>
+      <c r="AT46">
+        <f t="shared" si="1"/>
+        <v>0.89650405855100002</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="1"/>
+        <v>0.90382075267299999</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="1"/>
+        <v>0.89256063371000005</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="1"/>
+        <v>0.87860899725499997</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="1"/>
+        <v>0.90044431463499996</v>
+      </c>
+      <c r="AY46">
+        <f t="shared" si="1"/>
+        <v>0.90377742768400005</v>
+      </c>
+      <c r="AZ46">
+        <f t="shared" si="1"/>
+        <v>0.596466574533</v>
+      </c>
+      <c r="BA46">
+        <f t="shared" si="1"/>
+        <v>0.31842319246799999</v>
+      </c>
+      <c r="BB46">
+        <f t="shared" si="1"/>
+        <v>0.55464745878400001</v>
+      </c>
+      <c r="BC46">
+        <f t="shared" si="1"/>
+        <v>0.56875600036600005</v>
+      </c>
+      <c r="BD46">
+        <f t="shared" si="1"/>
+        <v>0.53156907677599996</v>
+      </c>
+      <c r="BE46">
+        <f t="shared" si="1"/>
+        <v>0.91449995292899999</v>
+      </c>
+      <c r="BF46">
+        <f t="shared" si="1"/>
+        <v>0.91521570003700004</v>
+      </c>
+      <c r="BG46">
+        <f t="shared" si="1"/>
+        <v>0.91093193057599997</v>
+      </c>
+      <c r="BH46">
+        <f t="shared" si="1"/>
+        <v>0.89787103500800003</v>
+      </c>
+      <c r="BI46">
+        <f t="shared" si="1"/>
+        <v>0.88235650256200004</v>
+      </c>
+      <c r="BJ46">
+        <f t="shared" si="1"/>
+        <v>0.90965329374299997</v>
+      </c>
+      <c r="BK46">
+        <f t="shared" si="1"/>
+        <v>0.907540264215</v>
+      </c>
+      <c r="BL46">
+        <f t="shared" si="1"/>
+        <v>0.58730377203799999</v>
+      </c>
+      <c r="BM46">
+        <f t="shared" si="1"/>
+        <v>0.32931260504400001</v>
+      </c>
+      <c r="BN46">
+        <f t="shared" si="1"/>
+        <v>0.54652733210000004</v>
+      </c>
+      <c r="BO46">
+        <f t="shared" si="1"/>
+        <v>0.56609747045400005</v>
+      </c>
+      <c r="BP46">
+        <f t="shared" si="1"/>
+        <v>0.54407611026500002</v>
+      </c>
+      <c r="BQ46">
+        <f t="shared" si="1"/>
+        <v>0.90346091404200002</v>
+      </c>
+      <c r="BR46">
+        <f t="shared" si="1"/>
+        <v>0.90294426160899999</v>
+      </c>
+      <c r="BS46">
+        <f t="shared" si="1"/>
+        <v>0.902882211878</v>
+      </c>
+      <c r="BT46">
+        <f t="shared" si="1"/>
+        <v>0.856968910902</v>
+      </c>
+      <c r="BU46">
+        <f t="shared" si="1"/>
+        <v>0.90831795387799996</v>
+      </c>
+      <c r="BV46">
+        <f t="shared" si="1"/>
+        <v>0.87287226389600003</v>
+      </c>
+      <c r="BW46">
+        <f t="shared" si="1"/>
+        <v>0.574011458802</v>
+      </c>
+      <c r="BX46">
+        <f t="shared" si="1"/>
+        <v>0.33543301599999997</v>
+      </c>
+      <c r="BY46">
+        <f t="shared" si="1"/>
+        <v>0.54019386228999999</v>
+      </c>
+      <c r="BZ46">
+        <f t="shared" si="1"/>
+        <v>0.59083309222400004</v>
+      </c>
+      <c r="CA46">
+        <f t="shared" si="1"/>
+        <v>0.55890225200599997</v>
+      </c>
+      <c r="CB46">
+        <f t="shared" si="1"/>
+        <v>0.97200594188400002</v>
+      </c>
+      <c r="CC46">
+        <f t="shared" si="1"/>
+        <v>0.94353376443299997</v>
+      </c>
+      <c r="CD46">
+        <f t="shared" si="1"/>
+        <v>0.85541414468400001</v>
+      </c>
+      <c r="CE46">
+        <f t="shared" si="1"/>
+        <v>0.91398678574400005</v>
+      </c>
+      <c r="CF46">
+        <f t="shared" si="1"/>
+        <v>0.88150581471400002</v>
+      </c>
+      <c r="CG46">
+        <f t="shared" si="1"/>
+        <v>0.58602149730800002</v>
+      </c>
+      <c r="CH46">
+        <f t="shared" si="1"/>
+        <v>0.34996167493500002</v>
+      </c>
+      <c r="CI46">
+        <f t="shared" si="1"/>
+        <v>0.53201611202800003</v>
+      </c>
+      <c r="CJ46">
+        <f t="shared" si="1"/>
+        <v>0.57462975890000001</v>
+      </c>
+      <c r="CK46">
+        <f t="shared" si="1"/>
+        <v>0.55173292571800003</v>
+      </c>
+      <c r="CL46">
+        <f t="shared" si="1"/>
+        <v>0.94655495979899995</v>
+      </c>
+      <c r="CM46">
+        <f t="shared" si="1"/>
+        <v>0.85755109438300003</v>
+      </c>
+      <c r="CN46">
+        <f t="shared" si="1"/>
+        <v>0.916465160206</v>
+      </c>
+      <c r="CO46">
+        <f t="shared" si="1"/>
+        <v>0.88069961357100002</v>
+      </c>
+      <c r="CP46">
+        <f t="shared" si="1"/>
+        <v>0.60073793267200004</v>
+      </c>
+      <c r="CQ46">
+        <f t="shared" si="1"/>
+        <v>0.36545975320099999</v>
+      </c>
+      <c r="CR46">
+        <f t="shared" si="1"/>
+        <v>0.53689463224</v>
+      </c>
+      <c r="CS46">
+        <f t="shared" si="1"/>
+        <v>0.58684836317599998</v>
+      </c>
+      <c r="CT46">
+        <f t="shared" si="1"/>
+        <v>0.54605492286900004</v>
+      </c>
+      <c r="CU46">
+        <f t="shared" si="1"/>
+        <v>0.84195597896899999</v>
+      </c>
+      <c r="CV46">
+        <f t="shared" si="1"/>
+        <v>0.91003557225300002</v>
+      </c>
+      <c r="CW46">
+        <f t="shared" ref="CW46:ED46" si="2">LARGE(CW2:CW45,1)</f>
+        <v>0.86545292808100005</v>
+      </c>
+      <c r="CX46">
+        <f t="shared" si="2"/>
+        <v>0.58132726111300004</v>
+      </c>
+      <c r="CY46">
+        <f t="shared" si="2"/>
+        <v>0.38457996079700002</v>
+      </c>
+      <c r="CZ46">
+        <f t="shared" si="2"/>
+        <v>0.527480142062</v>
+      </c>
+      <c r="DA46">
+        <f t="shared" si="2"/>
+        <v>0.59405375000399996</v>
+      </c>
+      <c r="DB46">
+        <f t="shared" si="2"/>
+        <v>0.55571172590999995</v>
+      </c>
+      <c r="DC46">
+        <f t="shared" si="2"/>
+        <v>0.81701541017099999</v>
+      </c>
+      <c r="DD46">
+        <f t="shared" si="2"/>
+        <v>0.85464986065899995</v>
+      </c>
+      <c r="DE46">
+        <f t="shared" si="2"/>
+        <v>0.55623643365599995</v>
+      </c>
+      <c r="DF46">
+        <f t="shared" si="2"/>
+        <v>0.315237064766</v>
+      </c>
+      <c r="DG46">
+        <f t="shared" si="2"/>
+        <v>0.46671128604700002</v>
+      </c>
+      <c r="DH46">
+        <f t="shared" si="2"/>
+        <v>0.53270957812300002</v>
+      </c>
+      <c r="DI46">
+        <f t="shared" si="2"/>
+        <v>0.51708919639700002</v>
+      </c>
+      <c r="DJ46">
+        <f t="shared" si="2"/>
+        <v>0.87325692169199998</v>
+      </c>
+      <c r="DK46">
+        <f t="shared" si="2"/>
+        <v>0.57335868267000001</v>
+      </c>
+      <c r="DL46">
+        <f t="shared" si="2"/>
+        <v>0.35006123805099998</v>
+      </c>
+      <c r="DM46">
+        <f t="shared" si="2"/>
+        <v>0.52806904731600002</v>
+      </c>
+      <c r="DN46">
+        <f t="shared" si="2"/>
+        <v>0.60052307765099999</v>
+      </c>
+      <c r="DO46">
+        <f t="shared" si="2"/>
+        <v>0.55221274352399996</v>
+      </c>
+      <c r="DP46">
+        <f t="shared" si="2"/>
+        <v>0.56496361048800003</v>
+      </c>
+      <c r="DQ46">
+        <f t="shared" si="2"/>
+        <v>0.318018047995</v>
+      </c>
+      <c r="DR46">
+        <f t="shared" si="2"/>
+        <v>0.49753850506000002</v>
+      </c>
+      <c r="DS46">
+        <f t="shared" si="2"/>
+        <v>0.53817960721699998</v>
+      </c>
+      <c r="DT46">
+        <f t="shared" si="2"/>
+        <v>0.53563169355899998</v>
+      </c>
+      <c r="DU46">
+        <f t="shared" si="2"/>
+        <v>0.408899182842</v>
+      </c>
+      <c r="DV46">
+        <f t="shared" si="2"/>
+        <v>0.47355002546800001</v>
+      </c>
+      <c r="DW46">
+        <f t="shared" si="2"/>
+        <v>0.61590521145699995</v>
+      </c>
+      <c r="DX46">
+        <f t="shared" si="2"/>
+        <v>0.52396003786500001</v>
+      </c>
+      <c r="DY46">
+        <f t="shared" si="2"/>
+        <v>0.425600802705</v>
+      </c>
+      <c r="DZ46">
+        <f t="shared" si="2"/>
+        <v>0.44608898122399998</v>
+      </c>
+      <c r="EA46">
+        <f t="shared" si="2"/>
+        <v>0.375226589326</v>
+      </c>
+      <c r="EB46">
+        <f t="shared" si="2"/>
+        <v>0.42129306594799998</v>
+      </c>
+      <c r="EC46">
+        <f t="shared" si="2"/>
+        <v>0.37819101847199998</v>
+      </c>
+      <c r="ED46">
+        <f t="shared" si="2"/>
+        <v>0.72572284111300001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:134" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47">
+        <f>SMALL(B2:B45,1)</f>
+        <v>-9.2882073924899999E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ref="C47:AG47" si="3">SMALL(C2:C45,1)</f>
+        <v>7.2835358181800001E-3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>-2.14624115123E-3</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>7.7577410718199999E-2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>5.0593306454699997E-2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>3.72669309037E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>-9.0677966047299999E-3</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>6.8774523904000004E-2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0.102453591062</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>-8.6846705604399999E-2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>4.86474404919E-2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>-0.14791036896199999</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>-2.3613114355399999E-2</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>2.1331906877000002E-2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>-0.12690629393399999</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="3"/>
+        <v>-0.112057896235</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>-2.9814762501599999E-2</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="3"/>
+        <v>2.3727345956700001E-2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="3"/>
+        <v>4.3328515667299998E-2</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="3"/>
+        <v>6.8755616749899995E-2</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="3"/>
+        <v>-7.8611249136799996E-2</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="3"/>
+        <v>0.123913363752</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="3"/>
+        <v>0.107859406389</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="3"/>
+        <v>-0.14340111166399999</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="3"/>
+        <v>6.8239982293800003E-2</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="3"/>
+        <v>-0.255244460058</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="3"/>
+        <v>-2.80541963615E-2</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="3"/>
+        <v>6.5830212838800001E-2</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="3"/>
+        <v>-0.13378262586799999</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="3"/>
+        <v>-7.0262331629299998E-2</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="3"/>
+        <v>-2.3136105693500001E-2</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="3"/>
+        <v>5.7529552270799998E-2</v>
+      </c>
+      <c r="AH47">
+        <f>SMALL(AH2:AH45,1)</f>
+        <v>5.8025781292700002E-2</v>
+      </c>
+      <c r="AI47">
+        <f>SMALL(AI2:AI45,1)</f>
+        <v>8.1194997988400006E-2</v>
+      </c>
+      <c r="AJ47">
+        <f>SMALL(AJ2:AJ45,1)</f>
+        <v>-4.0332955831400001E-2</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" ref="AK47:CV47" si="4">SMALL(AK2:AK45,1)</f>
+        <v>0.13392004204800001</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="4"/>
+        <v>0.119534180556</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="4"/>
+        <v>-0.13865518429699999</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="4"/>
+        <v>8.0656417325499996E-2</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="4"/>
+        <v>-0.26056082015900001</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="4"/>
+        <v>-2.9912703459899999E-2</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="4"/>
+        <v>7.1997185376900003E-2</v>
+      </c>
+      <c r="AR47">
+        <f t="shared" si="4"/>
+        <v>0.851830538571</v>
+      </c>
+      <c r="AS47">
+        <f t="shared" si="4"/>
+        <v>0.74872031790399995</v>
+      </c>
+      <c r="AT47">
+        <f t="shared" si="4"/>
+        <v>0.70110645150799999</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="4"/>
+        <v>0.71940605974100003</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="4"/>
+        <v>0.67004494872999998</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="4"/>
+        <v>0.62151560171999998</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="4"/>
+        <v>0.677635753753</v>
+      </c>
+      <c r="AY47">
+        <f t="shared" si="4"/>
+        <v>0.67174340910499997</v>
+      </c>
+      <c r="AZ47">
+        <f t="shared" si="4"/>
+        <v>0.25549414843500001</v>
+      </c>
+      <c r="BA47">
+        <f t="shared" si="4"/>
+        <v>0.102611234696</v>
+      </c>
+      <c r="BB47">
+        <f t="shared" si="4"/>
+        <v>0.11454654686</v>
+      </c>
+      <c r="BC47">
+        <f t="shared" si="4"/>
+        <v>0.18341794413699999</v>
+      </c>
+      <c r="BD47">
+        <f t="shared" si="4"/>
+        <v>0.20205899711299999</v>
+      </c>
+      <c r="BE47">
+        <f t="shared" si="4"/>
+        <v>0.77297923532199997</v>
+      </c>
+      <c r="BF47">
+        <f t="shared" si="4"/>
+        <v>0.75278012308200004</v>
+      </c>
+      <c r="BG47">
+        <f t="shared" si="4"/>
+        <v>0.74810394444999995</v>
+      </c>
+      <c r="BH47">
+        <f t="shared" si="4"/>
+        <v>0.69615661062599998</v>
+      </c>
+      <c r="BI47">
+        <f t="shared" si="4"/>
+        <v>0.67137164979300001</v>
+      </c>
+      <c r="BJ47">
+        <f t="shared" si="4"/>
+        <v>0.68116071926599997</v>
+      </c>
+      <c r="BK47">
+        <f t="shared" si="4"/>
+        <v>0.69753936532399996</v>
+      </c>
+      <c r="BL47">
+        <f t="shared" si="4"/>
+        <v>0.24742783178899999</v>
+      </c>
+      <c r="BM47">
+        <f t="shared" si="4"/>
+        <v>0.127618485552</v>
+      </c>
+      <c r="BN47">
+        <f t="shared" si="4"/>
+        <v>0.112586711891</v>
+      </c>
+      <c r="BO47">
+        <f t="shared" si="4"/>
+        <v>0.19527585346000001</v>
+      </c>
+      <c r="BP47">
+        <f t="shared" si="4"/>
+        <v>0.207154416102</v>
+      </c>
+      <c r="BQ47">
+        <f t="shared" si="4"/>
+        <v>0.72202624337599997</v>
+      </c>
+      <c r="BR47">
+        <f t="shared" si="4"/>
+        <v>0.74187635242500005</v>
+      </c>
+      <c r="BS47">
+        <f t="shared" si="4"/>
+        <v>0.69685078877999995</v>
+      </c>
+      <c r="BT47">
+        <f t="shared" si="4"/>
+        <v>0.58508665281299999</v>
+      </c>
+      <c r="BU47">
+        <f t="shared" si="4"/>
+        <v>0.69880032828299998</v>
+      </c>
+      <c r="BV47">
+        <f t="shared" si="4"/>
+        <v>0.70092751886299998</v>
+      </c>
+      <c r="BW47">
+        <f t="shared" si="4"/>
+        <v>0.22981750448800001</v>
+      </c>
+      <c r="BX47">
+        <f t="shared" si="4"/>
+        <v>0.13245483756400001</v>
+      </c>
+      <c r="BY47">
+        <f t="shared" si="4"/>
+        <v>8.5014500485300001E-2</v>
+      </c>
+      <c r="BZ47">
+        <f t="shared" si="4"/>
+        <v>0.188179025527</v>
+      </c>
+      <c r="CA47">
+        <f t="shared" si="4"/>
+        <v>0.21855119603699999</v>
+      </c>
+      <c r="CB47">
+        <f t="shared" si="4"/>
+        <v>0.88703081669799999</v>
+      </c>
+      <c r="CC47">
+        <f t="shared" si="4"/>
+        <v>0.78418012158899997</v>
+      </c>
+      <c r="CD47">
+        <f t="shared" si="4"/>
+        <v>0.60071376495499995</v>
+      </c>
+      <c r="CE47">
+        <f t="shared" si="4"/>
+        <v>0.72823245292200001</v>
+      </c>
+      <c r="CF47">
+        <f t="shared" si="4"/>
+        <v>0.65289522951400003</v>
+      </c>
+      <c r="CG47">
+        <f t="shared" si="4"/>
+        <v>0.222986841977</v>
+      </c>
+      <c r="CH47">
+        <f t="shared" si="4"/>
+        <v>0.17678196252799999</v>
+      </c>
+      <c r="CI47">
+        <f t="shared" si="4"/>
+        <v>6.9809172903799996E-2</v>
+      </c>
+      <c r="CJ47">
+        <f t="shared" si="4"/>
+        <v>0.20524261586799999</v>
+      </c>
+      <c r="CK47">
+        <f t="shared" si="4"/>
+        <v>0.21695338039299999</v>
+      </c>
+      <c r="CL47">
+        <f t="shared" si="4"/>
+        <v>0.81347890266099998</v>
+      </c>
+      <c r="CM47">
+        <f t="shared" si="4"/>
+        <v>0.59761737250000002</v>
+      </c>
+      <c r="CN47">
+        <f t="shared" si="4"/>
+        <v>0.75707653908399997</v>
+      </c>
+      <c r="CO47">
+        <f t="shared" si="4"/>
+        <v>0.67485716960200004</v>
+      </c>
+      <c r="CP47">
+        <f t="shared" si="4"/>
+        <v>0.24282446999099999</v>
+      </c>
+      <c r="CQ47">
+        <f t="shared" si="4"/>
+        <v>0.16986162071499999</v>
+      </c>
+      <c r="CR47">
+        <f t="shared" si="4"/>
+        <v>6.09617348083E-2</v>
+      </c>
+      <c r="CS47">
+        <f t="shared" si="4"/>
+        <v>0.204693749659</v>
+      </c>
+      <c r="CT47">
+        <f t="shared" si="4"/>
+        <v>0.220297478755</v>
+      </c>
+      <c r="CU47">
+        <f t="shared" si="4"/>
+        <v>0.54611341679500003</v>
+      </c>
+      <c r="CV47">
+        <f t="shared" si="4"/>
+        <v>0.72420894726899998</v>
+      </c>
+      <c r="CW47">
+        <f t="shared" ref="CW47:ED47" si="5">SMALL(CW2:CW45,1)</f>
+        <v>0.61885778956100002</v>
+      </c>
+      <c r="CX47">
+        <f t="shared" si="5"/>
+        <v>0.219947645981</v>
+      </c>
+      <c r="CY47">
+        <f t="shared" si="5"/>
+        <v>0.18164345449700001</v>
+      </c>
+      <c r="CZ47">
+        <f t="shared" si="5"/>
+        <v>5.8463035182899997E-2</v>
+      </c>
+      <c r="DA47">
+        <f t="shared" si="5"/>
+        <v>0.20023003375199999</v>
+      </c>
+      <c r="DB47">
+        <f t="shared" si="5"/>
+        <v>0.220496008439</v>
+      </c>
+      <c r="DC47">
+        <f t="shared" si="5"/>
+        <v>0.48976945510499997</v>
+      </c>
+      <c r="DD47">
+        <f t="shared" si="5"/>
+        <v>0.56625826149900005</v>
+      </c>
+      <c r="DE47">
+        <f t="shared" si="5"/>
+        <v>0.194294029211</v>
+      </c>
+      <c r="DF47">
+        <f t="shared" si="5"/>
+        <v>6.1072911890100001E-2</v>
+      </c>
+      <c r="DG47">
+        <f t="shared" si="5"/>
+        <v>5.2382282615399997E-2</v>
+      </c>
+      <c r="DH47">
+        <f t="shared" si="5"/>
+        <v>0.15114355514899999</v>
+      </c>
+      <c r="DI47">
+        <f t="shared" si="5"/>
+        <v>0.167500222901</v>
+      </c>
+      <c r="DJ47">
+        <f t="shared" si="5"/>
+        <v>0.66700396900000003</v>
+      </c>
+      <c r="DK47">
+        <f t="shared" si="5"/>
+        <v>0.21173388168900001</v>
+      </c>
+      <c r="DL47">
+        <f t="shared" si="5"/>
+        <v>0.18654969202800001</v>
+      </c>
+      <c r="DM47">
+        <f t="shared" si="5"/>
+        <v>4.9199129241599998E-2</v>
+      </c>
+      <c r="DN47">
+        <f t="shared" si="5"/>
+        <v>0.22175104690200001</v>
+      </c>
+      <c r="DO47">
+        <f t="shared" si="5"/>
+        <v>0.24914326080599999</v>
+      </c>
+      <c r="DP47">
+        <f t="shared" si="5"/>
+        <v>0.23762632906</v>
+      </c>
+      <c r="DQ47">
+        <f t="shared" si="5"/>
+        <v>6.7110587019399995E-2</v>
+      </c>
+      <c r="DR47">
+        <f t="shared" si="5"/>
+        <v>3.4716454009600002E-2</v>
+      </c>
+      <c r="DS47">
+        <f t="shared" si="5"/>
+        <v>0.18647405522900001</v>
+      </c>
+      <c r="DT47">
+        <f t="shared" si="5"/>
+        <v>0.25217129290500001</v>
+      </c>
+      <c r="DU47">
+        <f t="shared" si="5"/>
+        <v>6.3261004549499997E-2</v>
+      </c>
+      <c r="DV47">
+        <f t="shared" si="5"/>
+        <v>7.0872155155599997E-2</v>
+      </c>
+      <c r="DW47">
+        <f t="shared" si="5"/>
+        <v>0.109299190931</v>
+      </c>
+      <c r="DX47">
+        <f t="shared" si="5"/>
+        <v>0.124809506436</v>
+      </c>
+      <c r="DY47">
+        <f t="shared" si="5"/>
+        <v>2.7424427285999999E-2</v>
+      </c>
+      <c r="DZ47">
+        <f t="shared" si="5"/>
+        <v>6.5329074720800004E-2</v>
+      </c>
+      <c r="EA47">
+        <f t="shared" si="5"/>
+        <v>6.6682475135199995E-2</v>
+      </c>
+      <c r="EB47">
+        <f t="shared" si="5"/>
+        <v>7.1984238306600001E-2</v>
+      </c>
+      <c r="EC47">
+        <f t="shared" si="5"/>
+        <v>-5.2695577527100003E-2</v>
+      </c>
+      <c r="ED47">
+        <f t="shared" si="5"/>
+        <v>0.210191614118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
